--- a/Profit-Percentages.xlsx
+++ b/Profit-Percentages.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>PAIRS</t>
   </si>
@@ -28,9 +28,6 @@
     <t xml:space="preserve">SOLUSDT </t>
   </si>
   <si>
-    <t>FORTHUSDT</t>
-  </si>
-  <si>
     <t>MBOXUSDT</t>
   </si>
   <si>
@@ -43,9 +40,6 @@
     <t>GMTUSDT</t>
   </si>
   <si>
-    <t>MBLUSDT</t>
-  </si>
-  <si>
     <t>GLMRUSDT</t>
   </si>
   <si>
@@ -115,9 +109,6 @@
     <t>ICXUSDT</t>
   </si>
   <si>
-    <t>SLPUSDT</t>
-  </si>
-  <si>
     <t>SUSHIUSDT</t>
   </si>
   <si>
@@ -133,12 +124,6 @@
     <t>REEFUSDT</t>
   </si>
   <si>
-    <t>VRAUSDT</t>
-  </si>
-  <si>
-    <t>POLSUSDT</t>
-  </si>
-  <si>
     <t>WANUSDT</t>
   </si>
   <si>
@@ -151,12 +136,6 @@
     <t>AXSUSDT</t>
   </si>
   <si>
-    <t>VOXELUSDT</t>
-  </si>
-  <si>
-    <t>SANTOSUSDT</t>
-  </si>
-  <si>
     <t>MANAUSDT</t>
   </si>
   <si>
@@ -166,7 +145,7 @@
     <t>GALAUSDT</t>
   </si>
   <si>
-    <t>WINGUSDT</t>
+    <t>ARUSDT</t>
   </si>
   <si>
     <t>BTCUSDT</t>
@@ -175,58 +154,16 @@
     <t>ETHUSDT</t>
   </si>
   <si>
-    <t>CVPUSDT</t>
-  </si>
-  <si>
-    <t>REIUSDT</t>
-  </si>
-  <si>
-    <t>OMUSDT</t>
-  </si>
-  <si>
-    <t>IDEXUSDT</t>
-  </si>
-  <si>
-    <t>REQUSDT</t>
-  </si>
-  <si>
-    <t>BIFIUSDT</t>
-  </si>
-  <si>
-    <t>WTCUSDT</t>
-  </si>
-  <si>
-    <t>KMDUSDT</t>
-  </si>
-  <si>
-    <t>PNTUSDT</t>
-  </si>
-  <si>
-    <t>AKROUSDT</t>
-  </si>
-  <si>
-    <t>FIDAUSDT</t>
-  </si>
-  <si>
-    <t>FIROUSDT</t>
-  </si>
-  <si>
-    <t>BONDUSDT</t>
-  </si>
-  <si>
-    <t>ERNUSDT</t>
-  </si>
-  <si>
-    <t>MITHUSDT</t>
-  </si>
-  <si>
-    <t>TORNUSDT</t>
-  </si>
-  <si>
-    <t>STEEMUSDT</t>
-  </si>
-  <si>
-    <t>BEAMUSDT</t>
+    <t>SNXUSDT</t>
+  </si>
+  <si>
+    <t>DYDXUSDT</t>
+  </si>
+  <si>
+    <t>ETCUSDT</t>
+  </si>
+  <si>
+    <t>MTLUSDT</t>
   </si>
 </sst>
 </file>
@@ -271,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -280,6 +217,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -330,7 +270,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D70" displayName="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D48" displayName="Table_1" id="1">
   <tableColumns count="4">
     <tableColumn name="PAIRS" id="1"/>
     <tableColumn name="ONE_DAY_PROFIT" id="2"/>
@@ -549,7 +489,7 @@
     <col customWidth="1" min="2" max="2" width="20.14"/>
     <col customWidth="1" min="3" max="3" width="21.14"/>
     <col customWidth="1" min="4" max="4" width="12.86"/>
-    <col customWidth="1" min="5" max="26" width="8.71"/>
+    <col customWidth="1" min="5" max="25" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -585,10 +525,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="C3" s="2">
-        <v>3.0</v>
+        <v>2.5</v>
       </c>
       <c r="D3" s="1">
         <v>7.0</v>
@@ -599,10 +539,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="C4" s="2">
-        <v>2.5</v>
+        <v>3.0</v>
       </c>
       <c r="D4" s="1">
         <v>7.0</v>
@@ -613,10 +553,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="2">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="C5" s="2">
-        <v>3.0</v>
+        <v>2.5</v>
       </c>
       <c r="D5" s="1">
         <v>7.0</v>
@@ -627,10 +567,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="2">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C6" s="2">
-        <v>2.5</v>
+        <v>3.0</v>
       </c>
       <c r="D6" s="1">
         <v>7.0</v>
@@ -655,7 +595,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="2">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="C8" s="2">
         <v>1.0</v>
@@ -669,10 +609,10 @@
         <v>11</v>
       </c>
       <c r="B9" s="2">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="C9" s="2">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="D9" s="1">
         <v>7.0</v>
@@ -683,7 +623,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="2">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="C10" s="2">
         <v>1.0</v>
@@ -700,7 +640,7 @@
         <v>5.0</v>
       </c>
       <c r="C11" s="2">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D11" s="1">
         <v>7.0</v>
@@ -711,10 +651,10 @@
         <v>14</v>
       </c>
       <c r="B12" s="2">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="C12" s="2">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D12" s="1">
         <v>7.0</v>
@@ -767,7 +707,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="2">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="C16" s="2">
         <v>3.0</v>
@@ -781,7 +721,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="2">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="C17" s="2">
         <v>3.0</v>
@@ -809,7 +749,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="2">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="C19" s="2">
         <v>3.0</v>
@@ -823,7 +763,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="2">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="C20" s="2">
         <v>3.0</v>
@@ -837,7 +777,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="2">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="C21" s="2">
         <v>3.0</v>
@@ -851,7 +791,7 @@
         <v>24</v>
       </c>
       <c r="B22" s="2">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="C22" s="2">
         <v>3.0</v>
@@ -865,7 +805,7 @@
         <v>25</v>
       </c>
       <c r="B23" s="2">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="C23" s="2">
         <v>3.0</v>
@@ -879,7 +819,7 @@
         <v>26</v>
       </c>
       <c r="B24" s="2">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="C24" s="2">
         <v>3.0</v>
@@ -893,7 +833,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="2">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="C25" s="2">
         <v>3.0</v>
@@ -907,7 +847,7 @@
         <v>28</v>
       </c>
       <c r="B26" s="2">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="C26" s="2">
         <v>3.0</v>
@@ -921,10 +861,10 @@
         <v>29</v>
       </c>
       <c r="B27" s="2">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="C27" s="2">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="D27" s="1">
         <v>7.0</v>
@@ -935,7 +875,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="2">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="C28" s="2">
         <v>3.0</v>
@@ -949,10 +889,10 @@
         <v>31</v>
       </c>
       <c r="B29" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C29" s="2">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D29" s="1">
         <v>7.0</v>
@@ -991,7 +931,7 @@
         <v>34</v>
       </c>
       <c r="B32" s="2">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="C32" s="2">
         <v>3.0</v>
@@ -1005,7 +945,7 @@
         <v>35</v>
       </c>
       <c r="B33" s="2">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="C33" s="2">
         <v>3.0</v>
@@ -1033,10 +973,10 @@
         <v>37</v>
       </c>
       <c r="B35" s="2">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="C35" s="2">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="D35" s="1">
         <v>7.0</v>
@@ -1047,7 +987,7 @@
         <v>38</v>
       </c>
       <c r="B36" s="2">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="C36" s="2">
         <v>3.0</v>
@@ -1061,7 +1001,7 @@
         <v>39</v>
       </c>
       <c r="B37" s="2">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="C37" s="2">
         <v>3.0</v>
@@ -1075,7 +1015,7 @@
         <v>40</v>
       </c>
       <c r="B38" s="2">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="C38" s="2">
         <v>3.0</v>
@@ -1089,7 +1029,7 @@
         <v>41</v>
       </c>
       <c r="B39" s="2">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="C39" s="2">
         <v>3.0</v>
@@ -1103,7 +1043,7 @@
         <v>42</v>
       </c>
       <c r="B40" s="2">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="C40" s="2">
         <v>1.0</v>
@@ -1117,7 +1057,7 @@
         <v>43</v>
       </c>
       <c r="B41" s="2">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="C41" s="2">
         <v>3.0</v>
@@ -1131,7 +1071,7 @@
         <v>44</v>
       </c>
       <c r="B42" s="2">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="C42" s="2">
         <v>3.0</v>
@@ -1145,13 +1085,13 @@
         <v>45</v>
       </c>
       <c r="B43" s="2">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="C43" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="D43" s="1">
-        <v>7.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="44" ht="14.25" customHeight="1">
@@ -1159,45 +1099,45 @@
         <v>46</v>
       </c>
       <c r="B44" s="2">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="C44" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="D44" s="1">
-        <v>7.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="45" ht="14.25" customHeight="1">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B45" s="2">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="C45" s="2">
         <v>3.0</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="2">
         <v>7.0</v>
       </c>
     </row>
     <row r="46" ht="14.25" customHeight="1">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B46" s="2">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="C46" s="2">
         <v>3.0</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="2">
         <v>7.0</v>
       </c>
     </row>
     <row r="47" ht="14.25" customHeight="1">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B47" s="2">
@@ -1206,332 +1146,46 @@
       <c r="C47" s="2">
         <v>1.0</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="2">
         <v>7.0</v>
       </c>
     </row>
     <row r="48" ht="14.25" customHeight="1">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B48" s="2">
         <v>7.0</v>
       </c>
       <c r="C48" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="D48" s="1">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="49" ht="14.25" customHeight="1">
-      <c r="A49" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="C49" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="D49" s="1">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="50" ht="14.25" customHeight="1">
-      <c r="A50" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" s="2">
         <v>1.0</v>
       </c>
-      <c r="C50" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D50" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="51" ht="14.25" customHeight="1">
-      <c r="A51" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C51" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D51" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="52" ht="14.25" customHeight="1">
-      <c r="A52" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C52" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D52" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="53" ht="14.25" customHeight="1">
-      <c r="A53" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C53" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D53" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="54" ht="14.25" customHeight="1">
-      <c r="A54" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C54" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D54" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="55" ht="14.25" customHeight="1">
-      <c r="A55" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C55" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D55" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="56" ht="14.25" customHeight="1">
-      <c r="A56" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C56" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D56" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="57" ht="14.25" customHeight="1">
-      <c r="A57" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C57" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D57" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="58" ht="14.25" customHeight="1">
-      <c r="A58" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C58" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D58" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="59" ht="14.25" customHeight="1">
-      <c r="A59" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C59" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D59" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="60" ht="14.25" customHeight="1">
-      <c r="A60" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C60" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D60" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="61" ht="14.25" customHeight="1">
-      <c r="A61" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B61" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C61" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D61" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="62" ht="14.25" customHeight="1">
-      <c r="A62" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B62" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C62" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D62" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="63" ht="14.25" customHeight="1">
-      <c r="A63" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C63" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D63" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="64" ht="14.25" customHeight="1">
-      <c r="A64" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C64" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D64" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="65" ht="14.25" customHeight="1">
-      <c r="A65" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B65" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C65" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D65" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="66" ht="14.25" customHeight="1">
-      <c r="A66" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B66" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C66" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D66" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="67" ht="14.25" customHeight="1">
-      <c r="A67" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B67" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C67" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D67" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="68" ht="14.25" customHeight="1">
-      <c r="A68" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B68" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C68" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D68" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="69" ht="14.25" customHeight="1">
-      <c r="A69" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B69" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C69" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D69" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="70" ht="14.25" customHeight="1">
-      <c r="A70" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B70" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C70" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D70" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
+      <c r="D48" s="2">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="49" ht="14.25" customHeight="1"/>
+    <row r="50" ht="14.25" customHeight="1"/>
+    <row r="51" ht="14.25" customHeight="1"/>
+    <row r="52" ht="14.25" customHeight="1"/>
+    <row r="53" ht="14.25" customHeight="1"/>
+    <row r="54" ht="14.25" customHeight="1"/>
+    <row r="55" ht="14.25" customHeight="1"/>
+    <row r="56" ht="14.25" customHeight="1"/>
+    <row r="57" ht="14.25" customHeight="1"/>
+    <row r="58" ht="14.25" customHeight="1"/>
+    <row r="59" ht="14.25" customHeight="1"/>
+    <row r="60" ht="14.25" customHeight="1"/>
+    <row r="61" ht="14.25" customHeight="1"/>
+    <row r="62" ht="14.25" customHeight="1"/>
+    <row r="63" ht="14.25" customHeight="1"/>
+    <row r="64" ht="14.25" customHeight="1"/>
+    <row r="65" ht="14.25" customHeight="1"/>
+    <row r="66" ht="14.25" customHeight="1"/>
+    <row r="67" ht="14.25" customHeight="1"/>
+    <row r="68" ht="14.25" customHeight="1"/>
+    <row r="69" ht="14.25" customHeight="1"/>
+    <row r="70" ht="14.25" customHeight="1"/>
     <row r="71" ht="14.25" customHeight="1"/>
     <row r="72" ht="14.25" customHeight="1"/>
     <row r="73" ht="14.25" customHeight="1"/>
@@ -2392,76 +2046,6 @@
     <row r="928" ht="14.25" customHeight="1"/>
     <row r="929" ht="14.25" customHeight="1"/>
     <row r="930" ht="14.25" customHeight="1"/>
-    <row r="931" ht="14.25" customHeight="1"/>
-    <row r="932" ht="14.25" customHeight="1"/>
-    <row r="933" ht="14.25" customHeight="1"/>
-    <row r="934" ht="14.25" customHeight="1"/>
-    <row r="935" ht="14.25" customHeight="1"/>
-    <row r="936" ht="14.25" customHeight="1"/>
-    <row r="937" ht="14.25" customHeight="1"/>
-    <row r="938" ht="14.25" customHeight="1"/>
-    <row r="939" ht="14.25" customHeight="1"/>
-    <row r="940" ht="14.25" customHeight="1"/>
-    <row r="941" ht="14.25" customHeight="1"/>
-    <row r="942" ht="14.25" customHeight="1"/>
-    <row r="943" ht="14.25" customHeight="1"/>
-    <row r="944" ht="14.25" customHeight="1"/>
-    <row r="945" ht="14.25" customHeight="1"/>
-    <row r="946" ht="14.25" customHeight="1"/>
-    <row r="947" ht="14.25" customHeight="1"/>
-    <row r="948" ht="14.25" customHeight="1"/>
-    <row r="949" ht="14.25" customHeight="1"/>
-    <row r="950" ht="14.25" customHeight="1"/>
-    <row r="951" ht="14.25" customHeight="1"/>
-    <row r="952" ht="14.25" customHeight="1"/>
-    <row r="953" ht="14.25" customHeight="1"/>
-    <row r="954" ht="14.25" customHeight="1"/>
-    <row r="955" ht="14.25" customHeight="1"/>
-    <row r="956" ht="14.25" customHeight="1"/>
-    <row r="957" ht="14.25" customHeight="1"/>
-    <row r="958" ht="14.25" customHeight="1"/>
-    <row r="959" ht="14.25" customHeight="1"/>
-    <row r="960" ht="14.25" customHeight="1"/>
-    <row r="961" ht="14.25" customHeight="1"/>
-    <row r="962" ht="14.25" customHeight="1"/>
-    <row r="963" ht="14.25" customHeight="1"/>
-    <row r="964" ht="14.25" customHeight="1"/>
-    <row r="965" ht="14.25" customHeight="1"/>
-    <row r="966" ht="14.25" customHeight="1"/>
-    <row r="967" ht="14.25" customHeight="1"/>
-    <row r="968" ht="14.25" customHeight="1"/>
-    <row r="969" ht="14.25" customHeight="1"/>
-    <row r="970" ht="14.25" customHeight="1"/>
-    <row r="971" ht="14.25" customHeight="1"/>
-    <row r="972" ht="14.25" customHeight="1"/>
-    <row r="973" ht="14.25" customHeight="1"/>
-    <row r="974" ht="14.25" customHeight="1"/>
-    <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
-    <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
